--- a/经络穴位/经络穴位.xlsx
+++ b/经络穴位/经络穴位.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="井荣俞经合总结" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
   <si>
     <t>阳</t>
   </si>
@@ -127,9 +127,6 @@
     <t>阳火</t>
   </si>
   <si>
-    <t>阳水</t>
-  </si>
-  <si>
     <t>阳木</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>足少阴肾经</t>
   </si>
   <si>
-    <t>手厥阴心包经</t>
-  </si>
-  <si>
     <t>手少阳三焦经</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>少泽</t>
   </si>
   <si>
-    <t>涌泉</t>
-  </si>
-  <si>
     <t>中冲</t>
   </si>
   <si>
@@ -496,9 +487,6 @@
     <t>尽泽</t>
   </si>
   <si>
-    <t>？</t>
-  </si>
-  <si>
     <t>母</t>
   </si>
   <si>
@@ -512,6 +500,110 @@
   </si>
   <si>
     <t>（红色）实则泻其子</t>
+  </si>
+  <si>
+    <t>天干与脏腑关系</t>
+  </si>
+  <si>
+    <t>甲胆乙肝丙小肠</t>
+  </si>
+  <si>
+    <t>丁心戊胃己脾乡</t>
+  </si>
+  <si>
+    <t>甲乙</t>
+  </si>
+  <si>
+    <t>壬数膀胱癸肾脏</t>
+  </si>
+  <si>
+    <t>丙丁</t>
+  </si>
+  <si>
+    <t>三焦亦向壬中寄</t>
+  </si>
+  <si>
+    <t>心包同归入癸水</t>
+  </si>
+  <si>
+    <t>戊己</t>
+  </si>
+  <si>
+    <t>庚辛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地支与脏腑对应</t>
+    </r>
+  </si>
+  <si>
+    <t>壬癸</t>
+  </si>
+  <si>
+    <t>肺寅大卯胃辰宫</t>
+  </si>
+  <si>
+    <t>脾巳心午小未中</t>
+  </si>
+  <si>
+    <t>申胱酉肾心包戌</t>
+  </si>
+  <si>
+    <t>亥焦子胆丑肝通</t>
+  </si>
+  <si>
+    <t>本穴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>少府</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>至阴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足通谷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>束骨</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>京骨</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金门</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞扬</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>委中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足通谷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -519,10 +611,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,10 +634,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <u/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,10 +657,12 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,15 +680,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <u/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>荥</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -600,8 +701,9 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -610,8 +712,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,8 +724,9 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,75 +742,146 @@
       </rPr>
       <t>）</t>
     </r>
-  </si>
-  <si>
-    <t>天干与脏腑关系</t>
-  </si>
-  <si>
-    <t>甲胆乙肝丙小肠</t>
-  </si>
-  <si>
-    <t>丁心戊胃己脾乡</t>
-  </si>
-  <si>
-    <t>甲乙</t>
-  </si>
-  <si>
-    <t>壬数膀胱癸肾脏</t>
-  </si>
-  <si>
-    <t>丙丁</t>
-  </si>
-  <si>
-    <t>三焦亦向壬中寄</t>
-  </si>
-  <si>
-    <t>心包同归入癸水</t>
-  </si>
-  <si>
-    <t>戊己</t>
-  </si>
-  <si>
-    <t>庚辛</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地支与脏腑对应</t>
-    </r>
-  </si>
-  <si>
-    <t>壬癸</t>
-  </si>
-  <si>
-    <t>肺寅大卯胃辰宫</t>
-  </si>
-  <si>
-    <t>脾巳心午小未中</t>
-  </si>
-  <si>
-    <t>申胱酉肾心包戌</t>
-  </si>
-  <si>
-    <t>亥焦子胆丑肝通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>委中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>至阴痛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>少海</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>少冲痛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴水</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳水</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>复溜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>涌泉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>然谷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>涌泉痛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>太溪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>太渊</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中极</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏到-冬至 火</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬到-夏至 水</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>手厥阴心包经</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足窍阴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠溪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足临泣</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘墟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳辅</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>外丘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳陵泉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足临泣</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠溪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳辅</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>日月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>太冲</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神门</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,15 +893,7 @@
       <sz val="14"/>
       <color rgb="FF191B1F"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -787,13 +954,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -803,183 +963,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF191B1F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0404DA"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF191B1F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -988,11 +1068,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,7 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149998474074526"/>
+        <fgColor theme="1" tint="0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,192 +1148,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1294,279 +1213,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,40 +1235,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,13 +1262,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1639,92 +1277,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00085102"/>
+      <color rgb="FF0404DA"/>
+      <color rgb="FF054279"/>
+      <color rgb="FF085102"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2014,36 +1652,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -2057,12 +1692,12 @@
     <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -2107,12 +1742,12 @@
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2153,535 +1788,591 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="P3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="29" t="s">
+      <c r="Q3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="L5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="J6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="P6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="G7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="16" t="s">
+      <c r="I7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="H8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="K8" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="P8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="B9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A9" s="3" t="s">
+      <c r="G9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="14" t="s">
+      <c r="I9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="J9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+      <c r="P9" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="H10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+      <c r="I10" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="L10" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O10" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="P10" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A11" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="L11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="P11" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A12" s="17" t="s">
+      <c r="G12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="H12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="I12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="J12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="K12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="L12" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="N12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="O12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17" t="s">
+      <c r="P12" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A13" s="19" t="s">
+      <c r="H13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="J13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="K13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="L13" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="N13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="O13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
+      <c r="P13" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A14" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>184</v>
+      </c>
       <c r="M14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>207</v>
+      </c>
       <c r="Q14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:18">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2690,291 +2381,317 @@
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>209</v>
+      </c>
       <c r="Q15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="1:18">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>187</v>
+      </c>
       <c r="M16" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="Q16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A19" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A20" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" ht="20.1" customHeight="1" spans="1:18">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
-    <row r="37" ht="20.1" customHeight="1"/>
-    <row r="38" ht="20.1" customHeight="1"/>
-    <row r="39" ht="20.1" customHeight="1"/>
-    <row r="40" ht="20.1" customHeight="1"/>
-    <row r="41" ht="20.1" customHeight="1"/>
-    <row r="42" ht="20.1" customHeight="1"/>
-    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G20:H20"/>
@@ -2983,141 +2700,140 @@
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1" spans="2:3">
+    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" ht="20.1" customHeight="1" spans="2:7">
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="2:7">
-      <c r="B3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="2:7">
-      <c r="B4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="6:7">
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="2:7">
-      <c r="B6" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="2:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="2:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" ht="20.1" customHeight="1"/>
-    <row r="10" ht="20.1" customHeight="1"/>
-    <row r="11" ht="20.1" customHeight="1"/>
-    <row r="12" ht="20.1" customHeight="1"/>
-    <row r="13" ht="20.1" customHeight="1"/>
-    <row r="14" ht="20.1" customHeight="1"/>
-    <row r="15" ht="20.1" customHeight="1"/>
-    <row r="16" ht="20.1" customHeight="1"/>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
-    <row r="29" ht="20.1" customHeight="1"/>
-    <row r="30" ht="20.1" customHeight="1"/>
-    <row r="31" ht="20.1" customHeight="1"/>
-    <row r="32" ht="20.1" customHeight="1"/>
-    <row r="33" ht="20.1" customHeight="1"/>
-    <row r="34" ht="20.1" customHeight="1"/>
-    <row r="35" ht="20.1" customHeight="1"/>
-    <row r="36" ht="20.1" customHeight="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/经络穴位/经络穴位.xlsx
+++ b/经络穴位/经络穴位.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="223">
   <si>
     <t>阳</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>足少阳胆经</t>
-  </si>
-  <si>
-    <t>足厥阴肝经</t>
   </si>
   <si>
     <t>井</t>
@@ -874,6 +871,22 @@
   </si>
   <si>
     <t>太白</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大敦</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足厥阴肝经</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲泉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行间</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1286,6 +1299,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1296,60 +1363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1675,7 +1688,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,11 +1706,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -1743,11 +1756,11 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1789,53 +1802,53 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="37" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -1864,8 +1877,8 @@
       <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>204</v>
+      <c r="N4" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>43</v>
@@ -1874,501 +1887,501 @@
         <v>44</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="K5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>58</v>
+      <c r="P5" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>219</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="K6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" s="34" t="s">
+      <c r="N6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="P6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>72</v>
+        <v>213</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="J7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>181</v>
+      <c r="L8" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="I9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>193</v>
+      <c r="L9" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="N9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="P9" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="H10" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="I10" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="L10" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="L10" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>217</v>
+      <c r="P10" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="P12" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="L13" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>175</v>
+        <v>78</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>207</v>
+      <c r="P14" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="R14" s="3"/>
     </row>
@@ -2381,86 +2394,86 @@
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>196</v>
+        <v>104</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="N15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>209</v>
+      <c r="P15" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>189</v>
+        <v>65</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>188</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>187</v>
+        <v>80</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="R16" s="3"/>
     </row>
@@ -2474,15 +2487,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="29" t="s">
-        <v>190</v>
+      <c r="J17" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>197</v>
+      <c r="L17" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -2513,10 +2526,10 @@
     </row>
     <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2538,21 +2551,21 @@
     </row>
     <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>156</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="26" t="s">
         <v>185</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="30" t="s">
-        <v>186</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="17"/>
@@ -2566,11 +2579,11 @@
       <c r="S20" s="18"/>
     </row>
     <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2721,86 +2734,86 @@
   <sheetData>
     <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/经络穴位/经络穴位.xlsx
+++ b/经络穴位/经络穴位.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
   <si>
     <t>阳</t>
   </si>
@@ -887,6 +887,18 @@
   </si>
   <si>
     <t>行间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳宫-曲泽</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中冲-间使</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陵-中冲</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1386,6 +1398,87 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285362</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="5648325"/>
+          <a:ext cx="3104762" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>370914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15192375" y="5648325"/>
+          <a:ext cx="4485714" cy="6219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1687,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,7 +2465,7 @@
         <v>105</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>70</v>
@@ -2418,7 +2511,7 @@
         <v>195</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>83</v>
@@ -2464,7 +2557,7 @@
         <v>93</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>107</v>
@@ -2716,6 +2809,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/经络穴位/经络穴位.xlsx
+++ b/经络穴位/经络穴位.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="井荣俞经合总结" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">井荣俞经合总结!$A$1:$Q$28</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -905,8 +908,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,7 +1247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,12 +1305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,6 +1372,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,87 +1402,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285362</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11534775" y="5648325"/>
-          <a:ext cx="3104762" cy="4542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>370914</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161148</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15192375" y="5648325"/>
-          <a:ext cx="4485714" cy="6219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1763,12 +1688,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,33 +1702,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="15" width="13" customWidth="1"/>
+    <col min="13" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -1848,12 +1774,12 @@
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1894,54 +1820,54 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+    <row r="3" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="35" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -1970,7 +1896,7 @@
       <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="36" t="s">
         <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -1984,7 +1910,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -2001,16 +1927,16 @@
       <c r="F5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2028,15 +1954,15 @@
       <c r="O5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="22" t="s">
         <v>219</v>
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -2062,16 +1988,16 @@
       <c r="I6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="27" t="s">
         <v>68</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -2088,7 +2014,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -2111,7 +2037,7 @@
       <c r="H7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="22" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -2132,7 +2058,7 @@
       <c r="O7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="22" t="s">
         <v>212</v>
       </c>
       <c r="Q7" s="3" t="s">
@@ -2140,7 +2066,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -2154,7 +2080,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2169,10 +2095,10 @@
       <c r="J8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="25" t="s">
         <v>180</v>
       </c>
       <c r="M8" s="11" t="s">
@@ -2192,7 +2118,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
@@ -2212,7 +2138,7 @@
       <c r="G9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="22" t="s">
         <v>101</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2224,10 +2150,10 @@
       <c r="K9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -2236,7 +2162,7 @@
       <c r="O9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="25" t="s">
         <v>211</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -2244,53 +2170,53 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="30" t="s">
         <v>216</v>
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>114</v>
       </c>
@@ -2316,7 +2242,7 @@
       <c r="K11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="25" t="s">
         <v>200</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -2328,7 +2254,7 @@
       <c r="O11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="25" t="s">
         <v>215</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -2336,7 +2262,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>125</v>
       </c>
@@ -2364,7 +2290,7 @@
       <c r="K12" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="26" t="s">
         <v>179</v>
       </c>
       <c r="M12" s="12" t="s">
@@ -2376,7 +2302,7 @@
       <c r="O12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="26" t="s">
         <v>210</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -2384,7 +2310,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
@@ -2410,7 +2336,7 @@
       <c r="K13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="21" t="s">
         <v>181</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -2422,7 +2348,7 @@
       <c r="O13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="21" t="s">
         <v>209</v>
       </c>
       <c r="Q13" s="16" t="s">
@@ -2430,7 +2356,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>148</v>
       </c>
@@ -2452,13 +2378,13 @@
       <c r="I14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="25" t="s">
         <v>174</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="25" t="s">
         <v>183</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -2470,7 +2396,7 @@
       <c r="O14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Q14" s="3" t="s">
@@ -2478,7 +2404,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2504,10 +2430,10 @@
       <c r="K15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="25" t="s">
         <v>195</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -2516,7 +2442,7 @@
       <c r="O15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="25" t="s">
         <v>208</v>
       </c>
       <c r="Q15" s="3" t="s">
@@ -2524,7 +2450,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>151</v>
       </c>
@@ -2544,13 +2470,13 @@
       <c r="I16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>188</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="25" t="s">
         <v>186</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2562,7 +2488,7 @@
       <c r="O16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="25" t="s">
         <v>205</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -2570,7 +2496,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2580,14 +2506,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="23" t="s">
         <v>189</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="23" t="s">
         <v>196</v>
       </c>
       <c r="N17" s="17"/>
@@ -2596,7 +2522,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -2617,14 +2543,14 @@
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
     </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2642,22 +2568,22 @@
       <c r="R19" s="17"/>
       <c r="S19" s="18"/>
     </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="18"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="26" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="24" t="s">
         <v>185</v>
       </c>
       <c r="J20" s="18"/>
@@ -2671,11 +2597,11 @@
       <c r="R20" s="17"/>
       <c r="S20" s="18"/>
     </row>
-    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="44" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="18"/>
@@ -2696,7 +2622,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="18"/>
     </row>
-    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2717,7 +2643,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="18"/>
     </row>
-    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2738,7 +2664,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="18"/>
     </row>
-    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2759,7 +2685,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="18"/>
     </row>
-    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2780,24 +2706,24 @@
       <c r="R25" s="17"/>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G20:H20"/>
@@ -2808,31 +2734,30 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>157</v>
       </c>
@@ -2846,7 +2771,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>158</v>
       </c>
@@ -2860,7 +2785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>162</v>
       </c>
@@ -2874,7 +2799,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
@@ -2882,7 +2807,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>166</v>
       </c>
@@ -2894,7 +2819,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>168</v>
       </c>
@@ -2902,7 +2827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>170</v>
       </c>
@@ -2910,34 +2835,34 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/经络穴位/经络穴位.xlsx
+++ b/经络穴位/经络穴位.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">井荣俞经合总结!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">井荣俞经合总结!$A$1:$Q$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="207">
   <si>
     <t>阳</t>
   </si>
@@ -130,6 +130,18 @@
     <t>阳火</t>
   </si>
   <si>
+    <t>阳水</t>
+  </si>
+  <si>
+    <t>阴水</t>
+  </si>
+  <si>
+    <t>夏到-冬至 火</t>
+  </si>
+  <si>
+    <t>冬到-夏至 水</t>
+  </si>
+  <si>
     <t>阳木</t>
   </si>
   <si>
@@ -163,12 +175,18 @@
     <t>足少阴肾经</t>
   </si>
   <si>
+    <t>手厥阴心包经</t>
+  </si>
+  <si>
     <t>手少阳三焦经</t>
   </si>
   <si>
     <t>足少阳胆经</t>
   </si>
   <si>
+    <t>足厥阴肝经</t>
+  </si>
+  <si>
     <t>井</t>
   </si>
   <si>
@@ -199,12 +217,21 @@
     <t>少泽</t>
   </si>
   <si>
+    <t>至阴</t>
+  </si>
+  <si>
+    <t>涌泉</t>
+  </si>
+  <si>
     <t>中冲</t>
   </si>
   <si>
     <t>关冲</t>
   </si>
   <si>
+    <t>足窍阴</t>
+  </si>
+  <si>
     <t>大敦</t>
   </si>
   <si>
@@ -238,6 +265,9 @@
     <t>前谷</t>
   </si>
   <si>
+    <t>足通谷</t>
+  </si>
+  <si>
     <t>然谷</t>
   </si>
   <si>
@@ -247,6 +277,9 @@
     <t>液门</t>
   </si>
   <si>
+    <t>侠溪</t>
+  </si>
+  <si>
     <t>行间</t>
   </si>
   <si>
@@ -277,6 +310,9 @@
     <t>后溪</t>
   </si>
   <si>
+    <t>束骨</t>
+  </si>
+  <si>
     <t>太溪</t>
   </si>
   <si>
@@ -286,6 +322,9 @@
     <t>中渚</t>
   </si>
   <si>
+    <t>足临泣</t>
+  </si>
+  <si>
     <t>太冲</t>
   </si>
   <si>
@@ -313,6 +352,9 @@
     <t>阳谷</t>
   </si>
   <si>
+    <t>昆仑</t>
+  </si>
+  <si>
     <t>复溜</t>
   </si>
   <si>
@@ -322,6 +364,9 @@
     <t>支沟</t>
   </si>
   <si>
+    <t>阳辅</t>
+  </si>
+  <si>
     <t>中封</t>
   </si>
   <si>
@@ -349,6 +394,9 @@
     <t>小海</t>
   </si>
   <si>
+    <t>委中</t>
+  </si>
+  <si>
     <t>阴谷</t>
   </si>
   <si>
@@ -358,6 +406,9 @@
     <t>天井</t>
   </si>
   <si>
+    <t>阳陵泉</t>
+  </si>
+  <si>
     <t>曲泉</t>
   </si>
   <si>
@@ -373,9 +424,15 @@
     <t>腕骨</t>
   </si>
   <si>
+    <t>京骨</t>
+  </si>
+  <si>
     <t>阳池</t>
   </si>
   <si>
+    <t>丘墟</t>
+  </si>
+  <si>
     <t>募</t>
   </si>
   <si>
@@ -397,6 +454,9 @@
     <t>关元</t>
   </si>
   <si>
+    <t>中极</t>
+  </si>
+  <si>
     <t>京门</t>
   </si>
   <si>
@@ -406,6 +466,9 @@
     <t>石门</t>
   </si>
   <si>
+    <t>日月</t>
+  </si>
+  <si>
     <t>期门</t>
   </si>
   <si>
@@ -433,6 +496,9 @@
     <t>养老</t>
   </si>
   <si>
+    <t>金门</t>
+  </si>
+  <si>
     <t>水泉</t>
   </si>
   <si>
@@ -442,6 +508,9 @@
     <t>会宗</t>
   </si>
   <si>
+    <t>外丘</t>
+  </si>
+  <si>
     <t>中都</t>
   </si>
   <si>
@@ -466,6 +535,9 @@
     <t>支正</t>
   </si>
   <si>
+    <t>飞扬</t>
+  </si>
+  <si>
     <t>大钟</t>
   </si>
   <si>
@@ -475,6 +547,9 @@
     <t>外关</t>
   </si>
   <si>
+    <t>光明</t>
+  </si>
+  <si>
     <t>蠡沟</t>
   </si>
   <si>
@@ -484,12 +559,30 @@
     <t>与经络五行属性相同</t>
   </si>
   <si>
+    <t>劳宫-曲泽</t>
+  </si>
+  <si>
     <t>尽泽</t>
   </si>
   <si>
+    <t>大陵-中冲</t>
+  </si>
+  <si>
     <t>母</t>
   </si>
   <si>
+    <t>中冲-间使</t>
+  </si>
+  <si>
+    <t>少冲痛</t>
+  </si>
+  <si>
+    <t>至阴痛</t>
+  </si>
+  <si>
+    <t>涌泉痛</t>
+  </si>
+  <si>
     <t>母穴</t>
   </si>
   <si>
@@ -500,110 +593,6 @@
   </si>
   <si>
     <t>（红色）实则泻其子</t>
-  </si>
-  <si>
-    <t>天干与脏腑关系</t>
-  </si>
-  <si>
-    <t>甲胆乙肝丙小肠</t>
-  </si>
-  <si>
-    <t>丁心戊胃己脾乡</t>
-  </si>
-  <si>
-    <t>甲乙</t>
-  </si>
-  <si>
-    <t>壬数膀胱癸肾脏</t>
-  </si>
-  <si>
-    <t>丙丁</t>
-  </si>
-  <si>
-    <t>三焦亦向壬中寄</t>
-  </si>
-  <si>
-    <t>心包同归入癸水</t>
-  </si>
-  <si>
-    <t>戊己</t>
-  </si>
-  <si>
-    <t>庚辛</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF191B1F"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地支与脏腑对应</t>
-    </r>
-  </si>
-  <si>
-    <t>壬癸</t>
-  </si>
-  <si>
-    <t>肺寅大卯胃辰宫</t>
-  </si>
-  <si>
-    <t>脾巳心午小未中</t>
-  </si>
-  <si>
-    <t>申胱酉肾心包戌</t>
-  </si>
-  <si>
-    <t>亥焦子胆丑肝通</t>
-  </si>
-  <si>
-    <t>本穴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>少府</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>至阴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足通谷</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>束骨</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>京骨</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金门</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞扬</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>委中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足通谷</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -616,7 +605,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,7 +627,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -662,7 +649,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -685,16 +671,21 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>荥</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -703,7 +694,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -714,7 +704,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -726,7 +715,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -742,174 +730,81 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>委中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>至阴痛</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>少海</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>少冲痛</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴水</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳水</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴谷</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>复溜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>涌泉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>然谷</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>涌泉痛</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>太溪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陵</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>太渊</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>中极</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏到-冬至 火</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬到-夏至 水</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>手厥阴心包经</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足窍阴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠溪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足临泣</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘墟</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳辅</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>外丘</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳陵泉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足临泣</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>侠溪</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳辅</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>日月</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>太冲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>神门</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>太白</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>大敦</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>足厥阴肝经</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲泉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>行间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳宫-曲泽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>中冲-间使</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陵-中冲</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>本穴</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>天干与脏腑关系</t>
+  </si>
+  <si>
+    <t>甲胆乙肝丙小肠</t>
+  </si>
+  <si>
+    <t>丁心戊胃己脾乡</t>
+  </si>
+  <si>
+    <t>甲乙</t>
+  </si>
+  <si>
+    <t>壬数膀胱癸肾脏</t>
+  </si>
+  <si>
+    <t>丙丁</t>
+  </si>
+  <si>
+    <t>三焦亦向壬中寄</t>
+  </si>
+  <si>
+    <t>心包同归入癸水</t>
+  </si>
+  <si>
+    <t>戊己</t>
+  </si>
+  <si>
+    <t>庚辛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF191B1F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地支与脏腑对应</t>
+    </r>
+  </si>
+  <si>
+    <t>壬癸</t>
+  </si>
+  <si>
+    <t>肺寅大卯胃辰宫</t>
+  </si>
+  <si>
+    <t>脾巳心午小未中</t>
+  </si>
+  <si>
+    <t>申胱酉肾心包戌</t>
+  </si>
+  <si>
+    <t>亥焦子胆丑肝通</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,7 +816,32 @@
       <sz val="14"/>
       <color rgb="FF191B1F"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0404DA"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -948,7 +868,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -977,6 +897,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -991,51 +919,169 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF191B1F"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0404DA"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1043,15 +1089,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1061,7 +1098,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1070,7 +1106,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1078,7 +1113,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1087,39 +1121,11 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,7 +1140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,7 +1152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505021"/>
+        <fgColor theme="1" tint="0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,7 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,12 +1188,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1241,13 +1433,281 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,25 +1723,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,14 +1771,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,9 +1799,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1317,83 +1828,76 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0404DA"/>
-      <color rgb="FF054279"/>
-      <color rgb="FF085102"/>
+      <color rgb="000404DA"/>
+      <color rgb="00054279"/>
+      <color rgb="00085102"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1683,30 +2187,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1724,12 +2233,12 @@
     <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39" t="s">
+    <row r="1" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1"/>
@@ -1772,14 +2281,13 @@
       <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+    <row r="2" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1818,593 +2326,580 @@
       <c r="Q2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+    <row r="3" ht="24.75" customHeight="1" spans="1:17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="M3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="N3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+    <row r="4" ht="23.25" customHeight="1" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="K4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="R4" s="3"/>
+      <c r="L4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>194</v>
+        <v>60</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="R5" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="R6" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="3"/>
+    <row r="10" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>200</v>
+        <v>139</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>215</v>
+        <v>143</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R11" s="3"/>
+        <v>145</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="3"/>
+    <row r="12" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A12" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="R13" s="3"/>
+    <row r="13" ht="20.1" customHeight="1" spans="1:17">
+      <c r="A13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>174</v>
+        <v>89</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>183</v>
+        <v>105</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>206</v>
+        <v>80</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="3"/>
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2413,459 +2908,460 @@
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>208</v>
+        <v>95</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="3"/>
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:18">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R16" s="3"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
-    <row r="17" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="23" t="s">
+    <row r="21" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A21" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="B21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
     </row>
-    <row r="18" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
+    <row r="22" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="29"/>
     </row>
-    <row r="19" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="18"/>
+    <row r="23" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29"/>
     </row>
-    <row r="20" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="18"/>
+    <row r="24" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="29"/>
     </row>
-    <row r="21" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="18"/>
+    <row r="25" ht="20.1" customHeight="1" spans="1:19">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="29"/>
     </row>
-    <row r="22" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="18"/>
-    </row>
-    <row r="25" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:19" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
+    <row r="37" ht="20.1" customHeight="1"/>
+    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="43" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G20:H20"/>
+  <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:L20"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="20.1" customHeight="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="2" ht="20.1" customHeight="1" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="2:7">
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="6:7">
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="2:3">
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="15" ht="20.1" customHeight="1"/>
+    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>